--- a/settings_index.xlsx
+++ b/settings_index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">SettingName</t>
   </si>
@@ -29,16 +29,10 @@
     <t xml:space="preserve">my_Lost_Civilization_Season_1_Episode_1.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">English classes Monika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_English_classes_Monika.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abfragen 25.02.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_Abfragen_25_02_2025.xlsx</t>
+    <t xml:space="preserve">25.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my_25_02_2025.xlsx</t>
   </si>
 </sst>
 </file>
@@ -403,17 +397,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/settings_index.xlsx
+++ b/settings_index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">SettingName</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">my_25_02_2025.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englischlektion 26.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my_Englischlektion_26_02_2025.xlsx</t>
   </si>
 </sst>
 </file>
@@ -397,6 +403,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/settings_index.xlsx
+++ b/settings_index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">SettingName</t>
   </si>
@@ -29,16 +29,10 @@
     <t xml:space="preserve">my_Lost_Civilization_Season_1_Episode_1.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">25.02.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_25_02_2025.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Englischlektion 26.02.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_Englischlektion_26_02_2025.xlsx</t>
+    <t xml:space="preserve">100 english words wiht letter [A]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my_100_english_words_wiht_letter__A_.xlsx</t>
   </si>
 </sst>
 </file>
@@ -403,17 +397,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/settings_index.xlsx
+++ b/settings_index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">SettingName</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">my_100_english_words_wiht_letter__A_.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my_Hut.xlsx</t>
   </si>
 </sst>
 </file>
@@ -397,6 +403,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/settings_index.xlsx
+++ b/settings_index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">SettingName</t>
   </si>
@@ -21,24 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">Archived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Civilization_Season 1_Episode 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_Lost_Civilization_Season_1_Episode_1.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 english words wiht letter [A]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_100_english_words_wiht_letter__A_.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my_Hut.xlsx</t>
   </si>
 </sst>
 </file>
@@ -381,39 +363,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
